--- a/STLC Sheet/STLC Sheet - TODOIST -  Epic - Header.xlsx
+++ b/STLC Sheet/STLC Sheet - TODOIST -  Epic - Header.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="500" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="DOC VERSION CONTROL" sheetId="7" r:id="rId1"/>
@@ -409,6 +409,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> el usuario hace clic por segunda vez en el botón "Abrir/Cerrar barra lateral"
@@ -430,6 +431,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> la barra lateral se contrae ocultándose de la pantalla principal</t>
@@ -604,6 +606,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> el usuario se posiciona con el puntero sobre el botón "Abrir/Cerrar barra lateral".
@@ -625,6 +628,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> aparaece un mensaje con el nombre del botón y su correspondente shortcut.</t>
@@ -644,159 +648,6 @@
   </si>
   <si>
     <t>Se busca verificar la dispoibilidad del botón "Ir al inicio" en la interfaz de usuario.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> el usuario se posiciona en la esquina supeirior izquierda del Header.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> se visualiza el botón "Abrir/Cerrar barra lateral"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> el usuario se posiciona en la esquina supeirior izquierda del Header.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> se visualiza el botón "Ir al inicio" a la derecha del botón "Abrir/Cerrar barra lateral"</t>
-    </r>
-  </si>
-  <si>
-    <t>La UI debería mostrar el botón "Ir al incio" en la esquina superior izquierda de la pantalla, sobre el header, al lado del botón "Abrir/Cerrar barra lateral"</t>
-  </si>
-  <si>
-    <t>[Header]-TOD-2-TC03</t>
-  </si>
-  <si>
-    <t>Verificar función de hover sobre el botón "Ir al incio"</t>
-  </si>
-  <si>
-    <t>Se busca verificar la función hover sobre el botón "Ir al inicio" en la interfaz de usuario.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> el usuario se posiciona con el puntero sobre el botón "Ir al incio".
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Then</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> aparaece un mensaje con el nombre del botón y su correspondente shortcut.</t>
-    </r>
-  </si>
-  <si>
-    <t>[Header]-TOD-3-TC02</t>
-  </si>
-  <si>
-    <t>Manuañ</t>
-  </si>
-  <si>
-    <t>Verificar existencia de botón la barra de búsqueda</t>
-  </si>
-  <si>
-    <t>Se busca verificar la dispoibilidad de la searchbar en el Header de la interfaz de usuario.</t>
   </si>
   <si>
     <r>
@@ -840,20 +691,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> se visualiza la barra de búsqueda al lado del botón "Ir al inicio"</t>
+      <t xml:space="preserve"> se visualiza el botón "Abrir/Cerrar barra lateral"</t>
     </r>
-  </si>
-  <si>
-    <t>La UI debería mostrar la searchbar en la esquina superior izquierda de la pantalla, al lado del botón "Ir al incio"</t>
-  </si>
-  <si>
-    <t>[Header]-TOD-3-TC03</t>
-  </si>
-  <si>
-    <t>Verificar función de hover sobre la Barra de búsqueda</t>
-  </si>
-  <si>
-    <t>Se busca verificar la función hover la barra de búsqueda en la interfaz de usuario.</t>
   </si>
   <si>
     <r>
@@ -872,6 +711,178 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> el usuario se posiciona en la esquina supeirior izquierda del Header.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se visualiza el botón "Ir al inicio" a la derecha del botón "Abrir/Cerrar barra lateral"</t>
+    </r>
+  </si>
+  <si>
+    <t>La UI debería mostrar el botón "Ir al incio" en la esquina superior izquierda de la pantalla, sobre el header, al lado del botón "Abrir/Cerrar barra lateral"</t>
+  </si>
+  <si>
+    <t>[Header]-TOD-2-TC03</t>
+  </si>
+  <si>
+    <t>Verificar función de hover sobre el botón "Ir al incio"</t>
+  </si>
+  <si>
+    <t>Se busca verificar la función hover sobre el botón "Ir al inicio" en la interfaz de usuario.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> el usuario se posiciona con el puntero sobre el botón "Ir al incio".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> aparaece un mensaje con el nombre del botón y su correspondente shortcut.</t>
+    </r>
+  </si>
+  <si>
+    <t>[Header]-TOD-3-TC02</t>
+  </si>
+  <si>
+    <t>Manuañ</t>
+  </si>
+  <si>
+    <t>Verificar existencia de botón la barra de búsqueda</t>
+  </si>
+  <si>
+    <t>Se busca verificar la dispoibilidad de la searchbar en el Header de la interfaz de usuario.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> el usuario se posiciona en la esquina supeirior izquierda del Header.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> se visualiza la barra de búsqueda al lado del botón "Ir al inicio"</t>
+    </r>
+  </si>
+  <si>
+    <t>La UI debería mostrar la searchbar en la esquina superior izquierda de la pantalla, al lado del botón "Ir al incio"</t>
+  </si>
+  <si>
+    <t>[Header]-TOD-3-TC03</t>
+  </si>
+  <si>
+    <t>Verificar función de hover sobre la Barra de búsqueda</t>
+  </si>
+  <si>
+    <t>Se busca verificar la función hover la barra de búsqueda en la interfaz de usuario.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> el usuario se posiciona con el puntero sobre la "Barra de búsqueda"
@@ -893,6 +904,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> el color de la Barra de búsqueda </t>
@@ -924,11 +936,13 @@
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -940,11 +954,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -957,12 +973,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -970,18 +988,21 @@
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -989,6 +1010,7 @@
       <sz val="16"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1622,7 +1644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1694,6 +1716,70 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1712,15 +1798,18 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1736,59 +1825,170 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1799,6 +1999,15 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1808,183 +2017,39 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2003,55 +2068,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2320,120 +2346,120 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" spans="1:7" ht="18">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" thickBot="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="38"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="37" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="38"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="36" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="35" t="s">
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="47"/>
+      <c r="G10" s="39"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="44" t="s">
         <v>53</v>
       </c>
@@ -2445,50 +2471,50 @@
       <c r="G11" s="46"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="53" t="s">
+      <c r="A12" s="40"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54" t="s">
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="57"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="57"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="57"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="58"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7" ht="12.95" customHeight="1">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="44" t="s">
         <v>53</v>
       </c>
@@ -2500,66 +2526,43 @@
       <c r="G16" s="46"/>
     </row>
     <row r="17" spans="1:7" ht="12.95" customHeight="1">
-      <c r="A17" s="49"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="57"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="1:7" ht="12.95" customHeight="1">
-      <c r="A18" s="49"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="57"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="1:7" ht="12.95" customHeight="1">
-      <c r="A19" s="49"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="57"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="20" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="58"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A16:B20"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A10:B15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
@@ -2576,6 +2579,29 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A10:B15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A16:B20"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2586,8 +2612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2598,40 +2624,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="9" t="s">
@@ -2640,14 +2666,14 @@
       <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="147" t="s">
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="31" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2658,14 +2684,14 @@
       <c r="B5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="148" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="32" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2676,14 +2702,14 @@
       <c r="B6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="148" t="s">
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="32" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2694,14 +2720,14 @@
       <c r="B7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="148" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="32" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2712,14 +2738,14 @@
       <c r="B8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="148" t="s">
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="32" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2730,14 +2756,14 @@
       <c r="B9" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="148" t="s">
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="32" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2748,14 +2774,14 @@
       <c r="B10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="148" t="s">
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="32" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2766,14 +2792,14 @@
       <c r="B11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="148" t="s">
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="32" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2784,14 +2810,14 @@
       <c r="B12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="148" t="s">
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="32" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2802,289 +2828,312 @@
       <c r="B13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="148" t="s">
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="32" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+      <c r="A14" s="149"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
       <c r="H40" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
@@ -3097,33 +3146,10 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3136,8 +3162,8 @@
   </sheetPr>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
@@ -3152,58 +3178,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="17" customFormat="1" ht="36" customHeight="1" thickBot="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="107"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="113"/>
     </row>
     <row r="2" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="104"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="110"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="110"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="116"/>
     </row>
     <row r="4" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A4" s="14" t="s">
@@ -3250,92 +3276,92 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="12.75">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="85" t="s">
+      <c r="G5" s="96"/>
+      <c r="H5" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="79" t="s">
+      <c r="I5" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="K5" s="88" t="s">
+      <c r="K5" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="95" t="s">
+      <c r="L5" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="78" t="s">
+      <c r="M5" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="78"/>
+      <c r="N5" s="79"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
     </row>
     <row r="9" spans="1:14" ht="76.5" customHeight="1">
       <c r="A9" s="25" t="s">
@@ -3382,790 +3408,886 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="79" t="s">
+      <c r="E10" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="79" t="s">
+      <c r="F10" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="82"/>
-      <c r="H10" s="85" t="s">
+      <c r="G10" s="96"/>
+      <c r="H10" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="79" t="s">
+      <c r="I10" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="J10" s="79" t="s">
+      <c r="J10" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="K10" s="88" t="s">
+      <c r="K10" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="L10" s="95" t="s">
+      <c r="L10" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="M10" s="78" t="s">
+      <c r="M10" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="N10" s="78"/>
+      <c r="N10" s="79"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A11" s="76"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A12" s="76"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="79" t="s">
+      <c r="E14" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="79" t="s">
+      <c r="F14" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="G14" s="82"/>
-      <c r="H14" s="85" t="s">
+      <c r="G14" s="96"/>
+      <c r="H14" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="79" t="s">
+      <c r="I14" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="J14" s="79" t="s">
+      <c r="J14" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="K14" s="88" t="s">
+      <c r="K14" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="L14" s="95" t="s">
+      <c r="L14" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="M14" s="78" t="s">
+      <c r="M14" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="N14" s="78"/>
+      <c r="N14" s="79"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A15" s="76"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A16" s="76"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
     </row>
     <row r="17" spans="1:14" ht="35.1" customHeight="1">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="79" t="s">
+      <c r="D18" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="79" t="s">
+      <c r="E18" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="79" t="s">
+      <c r="F18" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="G18" s="82"/>
-      <c r="H18" s="85" t="s">
+      <c r="G18" s="96"/>
+      <c r="H18" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="I18" s="79" t="s">
+      <c r="I18" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="J18" s="79" t="s">
+      <c r="J18" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="K18" s="88" t="s">
+      <c r="K18" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="L18" s="95" t="s">
+      <c r="L18" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="78" t="s">
+      <c r="M18" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="N18" s="78"/>
+      <c r="N18" s="79"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A19" s="76"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
     </row>
     <row r="20" spans="1:14" ht="21.95" customHeight="1">
-      <c r="A20" s="76"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="79" t="s">
+      <c r="D22" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="78" t="s">
+      <c r="E22" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="78" t="s">
+      <c r="F22" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="G22" s="114" t="s">
+      <c r="G22" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="H22" s="85" t="s">
+      <c r="H22" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="88" t="s">
+      <c r="I22" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="79" t="s">
+      <c r="J22" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="K22" s="88" t="s">
+      <c r="K22" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="L22" s="95" t="s">
+      <c r="L22" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="M22" s="78" t="s">
+      <c r="M22" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="N22" s="78"/>
+      <c r="N22" s="79"/>
     </row>
     <row r="23" spans="1:14" ht="12.75">
-      <c r="A23" s="76"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
     </row>
     <row r="24" spans="1:14" ht="12.75">
-      <c r="A24" s="77"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
     </row>
     <row r="25" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="79" t="s">
+      <c r="D25" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="79" t="s">
+      <c r="E25" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="F25" s="79" t="s">
+      <c r="F25" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="82"/>
-      <c r="H25" s="85" t="s">
+      <c r="G25" s="96"/>
+      <c r="H25" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="I25" s="79" t="s">
+      <c r="I25" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="J25" s="79" t="s">
+      <c r="J25" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="K25" s="88" t="s">
+      <c r="K25" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="L25" s="95" t="s">
+      <c r="L25" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="M25" s="78" t="s">
+      <c r="M25" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="N25" s="78"/>
+      <c r="N25" s="79"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A26" s="76"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A27" s="76"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A28" s="77"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A29" s="98" t="s">
+      <c r="A29" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="121" t="s">
+      <c r="B29" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="121" t="s">
+      <c r="C29" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="D29" s="111" t="s">
+      <c r="D29" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="79" t="s">
+      <c r="E29" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="F29" s="79" t="s">
+      <c r="F29" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="79" t="s">
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="J29" s="79" t="s">
+      <c r="J29" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="K29" s="88" t="s">
+      <c r="K29" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="95" t="s">
+      <c r="L29" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="M29" s="78" t="s">
+      <c r="M29" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="N29" s="78"/>
+      <c r="N29" s="79"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A30" s="99"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
     </row>
     <row r="31" spans="1:14" ht="31.5" customHeight="1">
-      <c r="A31" s="101"/>
-      <c r="B31" s="120"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="97"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="121" t="s">
+      <c r="B32" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="121" t="s">
+      <c r="C32" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="111" t="s">
+      <c r="D32" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="79" t="s">
+      <c r="E32" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="79" t="s">
+      <c r="F32" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85" t="s">
+      <c r="G32" s="102"/>
+      <c r="H32" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="I32" s="79" t="s">
+      <c r="I32" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="J32" s="79" t="s">
+      <c r="J32" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="K32" s="88" t="s">
+      <c r="K32" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="L32" s="95" t="s">
+      <c r="L32" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="M32" s="78" t="s">
+      <c r="M32" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="N32" s="78"/>
+      <c r="N32" s="79"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A33" s="99"/>
-      <c r="B33" s="118"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A34" s="99"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A35" s="101"/>
-      <c r="B35" s="120"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="97"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A36" s="78" t="s">
+      <c r="A36" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="C36" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="79" t="s">
+      <c r="D36" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="E36" s="79" t="s">
+      <c r="E36" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="F36" s="79" t="s">
+      <c r="F36" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="G36" s="82"/>
-      <c r="H36" s="85" t="s">
+      <c r="G36" s="96"/>
+      <c r="H36" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="I36" s="79" t="s">
+      <c r="I36" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="J36" s="79" t="s">
+      <c r="J36" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="K36" s="88" t="s">
+      <c r="K36" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="L36" s="95" t="s">
+      <c r="L36" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="M36" s="78" t="s">
+      <c r="M36" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="N36" s="78"/>
+      <c r="N36" s="79"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A37" s="76"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="93"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A38" s="76"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="93"/>
-      <c r="L38" s="96"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
+      <c r="A38" s="80"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="80"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="97"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="77"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="81"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A40" s="98"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78"/>
+      <c r="A40" s="82"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="117"/>
+      <c r="L40" s="92"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="79"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A41" s="99"/>
-      <c r="B41" s="118"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="93"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="80"/>
+      <c r="N41" s="80"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A42" s="101"/>
-      <c r="B42" s="120"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="94"/>
-      <c r="L42" s="97"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="91"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="81"/>
+      <c r="N42" s="81"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A43" s="98"/>
-      <c r="B43" s="117"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="92"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
+      <c r="A43" s="82"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="92"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="79"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A44" s="99"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="93"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
+      <c r="A44" s="83"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="90"/>
+      <c r="L44" s="93"/>
+      <c r="M44" s="80"/>
+      <c r="N44" s="80"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A45" s="100"/>
-      <c r="B45" s="119"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="94"/>
-      <c r="L45" s="97"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="77"/>
+      <c r="A45" s="85"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="91"/>
+      <c r="L45" s="94"/>
+      <c r="M45" s="81"/>
+      <c r="N45" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="157">
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="M43:M45"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="N29:N31"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="M40:M42"/>
+    <mergeCell ref="N40:N42"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="M36:M39"/>
+    <mergeCell ref="N36:N39"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="N22:N24"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="M5:M8"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="M25:M28"/>
+    <mergeCell ref="N25:N28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="G25:G28"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="J10:J13"/>
@@ -4190,124 +4312,28 @@
     <mergeCell ref="N32:N35"/>
     <mergeCell ref="K22:K24"/>
     <mergeCell ref="L22:L24"/>
-    <mergeCell ref="M22:M24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="M25:M28"/>
-    <mergeCell ref="N25:N28"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="N22:N24"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="N18:N21"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="K5:K8"/>
-    <mergeCell ref="L5:L8"/>
-    <mergeCell ref="M5:M8"/>
-    <mergeCell ref="N5:N8"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="N29:N31"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="M40:M42"/>
-    <mergeCell ref="N40:N42"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="M36:M39"/>
-    <mergeCell ref="N36:N39"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="M43:M45"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="I5:I8"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B22:B24"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="J18:J21"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="J25:J28"/>
     <mergeCell ref="B36:B39"/>
     <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="J36:J39"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="K9">
@@ -4324,7 +4350,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F9"/>
+      <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -4338,280 +4364,301 @@
     </row>
     <row r="6" spans="1:6" ht="13.5" thickBot="1"/>
     <row r="7" spans="1:6" ht="21" thickBot="1">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="123"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" thickBot="1">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="126"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" thickBot="1">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="127" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="66"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="129"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1">
       <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="72"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8"/>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="7"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="7"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="7"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="7"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="7"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="7"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="7"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="7"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="7"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="7"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="7"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="7"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="7"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="7"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="7"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="7"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="7"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="7"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="7"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="7"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="7"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="B39" s="122"/>
-      <c r="C39" s="122"/>
-      <c r="D39" s="122"/>
-      <c r="E39" s="122"/>
-      <c r="F39" s="122"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A8:F8"/>
@@ -4624,27 +4671,6 @@
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4659,7 +4685,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="25" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="12.75"/>
@@ -4677,58 +4703,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="17" customFormat="1" ht="36.950000000000003" customHeight="1" thickBot="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" thickBot="1">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" thickBot="1">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
     </row>
     <row r="4" spans="1:14" s="6" customFormat="1" ht="16.5" thickBot="1">
       <c r="A4" s="15" t="s">
@@ -4837,8 +4863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -4857,70 +4883,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
     </row>
     <row r="2" spans="1:12" ht="18.95" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="143" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
     </row>
     <row r="3" spans="1:12" ht="18.95" customHeight="1" thickBot="1">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="145" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="138" t="s">
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="139"/>
-      <c r="L4" s="140"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="138"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1">
       <c r="A5" s="18" t="s">
@@ -4961,91 +4987,104 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="136"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
+      <c r="A6" s="148"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="137"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
+      <c r="A7" s="134"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="137"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="133"/>
+      <c r="A8" s="134"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="135"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="137"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="135"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="137"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="137"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="133"/>
+      <c r="A11" s="134"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="K9:K11"/>
@@ -5062,19 +5101,6 @@
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="H9:H11"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
